--- a/Sprint2/week3/Group25 DBL Scrum Timesheets.xlsx
+++ b/Sprint2/week3/Group25 DBL Scrum Timesheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_topac_student_tue_nl/Documents/Year 1/Q4/2IO75 - DBL Embedded Systems/Embedded_system_group25/Embedded_system_group25/Sprint2/week3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54E8D2F6-221E-4C6F-887A-90B5356152E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C87936D7-A0B5-436A-8E51-D5C04B144FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Sprint2/week3/Group25 DBL Scrum Timesheets.xlsx
+++ b/Sprint2/week3/Group25 DBL Scrum Timesheets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_topac_student_tue_nl/Documents/Year 1/Q4/2IO75 - DBL Embedded Systems/Embedded_system_group25/Embedded_system_group25/Sprint1/week2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_topac_student_tue_nl/Documents/Year 1/Q4/2IO75 - DBL Embedded Systems/Embedded_system_group25/Embedded_system_group25/Sprint2/week3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6651535A-C6F2-4034-890A-A359C1B746B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D2ADFB6-BFCE-4172-B167-152511E76B5C}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{6651535A-C6F2-4034-890A-A359C1B746B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ACB4992-3AF5-43A1-97E6-7BE9D02E60CE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="187">
   <si>
     <t>Project:</t>
   </si>
@@ -602,6 +602,12 @@
   <si>
     <t>Sprint Task 1.4: Circuit Diagram</t>
   </si>
+  <si>
+    <t>Sprint Task 2.1: Material List</t>
+  </si>
+  <si>
+    <t>Sprint Task 2.2: Material List v2</t>
+  </si>
 </sst>
 </file>
 
@@ -1061,7 +1067,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52083333333333326</c:v>
+                  <c:v>0.56249999999999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.94791666666666663</c:v>
@@ -1293,7 +1299,7 @@
                   <c:v>1.708333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92708333333333326</c:v>
+                  <c:v>0.96874999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1332,7 +1338,7 @@
                   <c:v>1.708333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92708333333333326</c:v>
+                  <c:v>0.96874999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1896,10 +1902,10 @@
                   <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>5.2083333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -13159,7 +13165,7 @@
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>0</v>
@@ -13185,7 +13191,7 @@
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>0</v>
@@ -13211,7 +13217,7 @@
       <c r="W33" s="39"/>
       <c r="X33" s="39"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>0</v>
@@ -13237,7 +13243,7 @@
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>0</v>
@@ -19344,7 +19350,7 @@
       <c r="W122" s="39"/>
       <c r="X122" s="39"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="18"/>
       <c r="C123" s="45"/>
       <c r="D123" s="45"/>
@@ -19367,7 +19373,7 @@
       <c r="W123" s="39"/>
       <c r="X123" s="39"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="18"/>
       <c r="C124" s="45"/>
       <c r="D124" s="45"/>
@@ -19390,7 +19396,7 @@
       <c r="W124" s="39"/>
       <c r="X124" s="39"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="18"/>
       <c r="C125" s="45"/>
       <c r="D125" s="45"/>
@@ -19413,7 +19419,7 @@
       <c r="W125" s="39"/>
       <c r="X125" s="39"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="18"/>
       <c r="C126" s="45"/>
       <c r="D126" s="45"/>
@@ -19436,7 +19442,7 @@
       <c r="W126" s="39"/>
       <c r="X126" s="39"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="18"/>
       <c r="C127" s="45"/>
       <c r="D127" s="45"/>
@@ -19459,7 +19465,7 @@
       <c r="W127" s="39"/>
       <c r="X127" s="39"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="18" t="s">
         <v>160</v>
       </c>
@@ -19514,7 +19520,7 @@
       <c r="W128" s="39"/>
       <c r="X128" s="39"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="18"/>
       <c r="M129" s="47"/>
       <c r="O129" s="39"/>
@@ -20528,8 +20534,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20811,9 +20817,13 @@
       <c r="X12" s="39"/>
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
@@ -20834,9 +20844,13 @@
       <c r="X13" s="39"/>
     </row>
     <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E14" s="44"/>
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
@@ -21259,7 +21273,7 @@
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="18">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>0</v>
@@ -21285,7 +21299,7 @@
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="18">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>0</v>
@@ -21311,7 +21325,7 @@
       <c r="W33" s="39"/>
       <c r="X33" s="39"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>0</v>
@@ -21337,7 +21351,7 @@
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>0</v>
@@ -23364,7 +23378,7 @@
       <c r="W122" s="39"/>
       <c r="X122" s="39"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="18"/>
       <c r="C123" s="45"/>
       <c r="D123" s="45"/>
@@ -23387,7 +23401,7 @@
       <c r="W123" s="39"/>
       <c r="X123" s="39"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="18"/>
       <c r="C124" s="45"/>
       <c r="D124" s="45"/>
@@ -23410,7 +23424,7 @@
       <c r="W124" s="39"/>
       <c r="X124" s="39"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="18"/>
       <c r="C125" s="45"/>
       <c r="D125" s="45"/>
@@ -23433,7 +23447,7 @@
       <c r="W125" s="39"/>
       <c r="X125" s="39"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="18"/>
       <c r="C126" s="45"/>
       <c r="D126" s="45"/>
@@ -23456,7 +23470,7 @@
       <c r="W126" s="39"/>
       <c r="X126" s="39"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="18"/>
       <c r="C127" s="45"/>
       <c r="D127" s="45"/>
@@ -23479,7 +23493,7 @@
       <c r="W127" s="39"/>
       <c r="X127" s="39"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="18" t="s">
         <v>160</v>
       </c>
@@ -23489,7 +23503,7 @@
       </c>
       <c r="D128" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E128" s="46">
         <f t="shared" si="0"/>
@@ -23534,7 +23548,7 @@
       <c r="W128" s="39"/>
       <c r="X128" s="39"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="18"/>
       <c r="M129" s="47"/>
       <c r="O129" s="39"/>
@@ -23558,39 +23572,39 @@
       </c>
       <c r="D130" s="39">
         <f>SUM(D128,C128)</f>
-        <v>0.52083333333333326</v>
+        <v>0.56249999999999989</v>
       </c>
       <c r="E130" s="39">
         <f>SUM(E128,C128,D128)</f>
-        <v>0.52083333333333326</v>
+        <v>0.56249999999999989</v>
       </c>
       <c r="F130" s="39">
         <f>SUM(C128:F128)</f>
-        <v>0.52083333333333326</v>
+        <v>0.56249999999999989</v>
       </c>
       <c r="G130" s="39">
         <f>SUM(C128:G128)</f>
-        <v>0.52083333333333326</v>
+        <v>0.56249999999999989</v>
       </c>
       <c r="H130" s="39">
         <f>SUM(C128:H128)</f>
-        <v>0.52083333333333326</v>
+        <v>0.56249999999999989</v>
       </c>
       <c r="I130" s="39">
         <f>SUM(C128:I128)</f>
-        <v>0.52083333333333326</v>
+        <v>0.56249999999999989</v>
       </c>
       <c r="J130" s="39">
         <f>SUM(C128:J128)</f>
-        <v>0.52083333333333326</v>
+        <v>0.56249999999999989</v>
       </c>
       <c r="K130" s="39">
         <f>SUM(C128:K128)</f>
-        <v>0.52083333333333326</v>
+        <v>0.56249999999999989</v>
       </c>
       <c r="L130" s="39">
         <f>SUM(C128:L128)</f>
-        <v>0.52083333333333326</v>
+        <v>0.56249999999999989</v>
       </c>
       <c r="M130" s="47"/>
       <c r="O130" s="39"/>
@@ -23614,39 +23628,39 @@
       </c>
       <c r="D131" s="39">
         <f>Parameters!$G$9-D130</f>
-        <v>5.3125</v>
+        <v>5.270833333333333</v>
       </c>
       <c r="E131" s="39">
         <f>Parameters!$G$9-E130</f>
-        <v>5.3125</v>
+        <v>5.270833333333333</v>
       </c>
       <c r="F131" s="39">
         <f>Parameters!$G$9-F130</f>
-        <v>5.3125</v>
+        <v>5.270833333333333</v>
       </c>
       <c r="G131" s="39">
         <f>Parameters!$G$9-G130</f>
-        <v>5.3125</v>
+        <v>5.270833333333333</v>
       </c>
       <c r="H131" s="39">
         <f>Parameters!$G$9-H130</f>
-        <v>5.3125</v>
+        <v>5.270833333333333</v>
       </c>
       <c r="I131" s="39">
         <f>Parameters!$G$9-I130</f>
-        <v>5.3125</v>
+        <v>5.270833333333333</v>
       </c>
       <c r="J131" s="39">
         <f>Parameters!$G$9-J130</f>
-        <v>5.3125</v>
+        <v>5.270833333333333</v>
       </c>
       <c r="K131" s="39">
         <f>Parameters!$G$9-K130</f>
-        <v>5.3125</v>
+        <v>5.270833333333333</v>
       </c>
       <c r="L131" s="39">
         <f>Parameters!$G$9-L130</f>
-        <v>5.3125</v>
+        <v>5.270833333333333</v>
       </c>
       <c r="O131" s="39"/>
       <c r="P131" s="39"/>
@@ -29069,7 +29083,7 @@
       </c>
       <c r="D13" s="48">
         <f>SUM('Serkan Efe Durusu'!D13,'Ismail Elmasry'!D13,'can Işmar'!D13,'Marios Papalouka'!D13,'Metehan Topaç'!D13,'Celine Zanders '!D13)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E13" s="48">
         <f>SUM('Serkan Efe Durusu'!E13,'Ismail Elmasry'!E13,'can Işmar'!E13,'Marios Papalouka'!E13,'Metehan Topaç'!E13,'Celine Zanders '!E13)</f>
@@ -29105,7 +29119,7 @@
       </c>
       <c r="M13" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="N13" s="50" t="str">
         <f t="array" ref="N13">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M13/INDEX(Tasks,2,3),"")</f>
@@ -29123,7 +29137,7 @@
       </c>
       <c r="D14" s="48">
         <f>SUM('Serkan Efe Durusu'!D14,'Ismail Elmasry'!D14,'can Işmar'!D14,'Marios Papalouka'!D14,'Metehan Topaç'!D14,'Celine Zanders '!D14)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E14" s="48">
         <f>SUM('Serkan Efe Durusu'!E14,'Ismail Elmasry'!E14,'can Işmar'!E14,'Marios Papalouka'!E14,'Metehan Topaç'!E14,'Celine Zanders '!E14)</f>
@@ -29159,7 +29173,7 @@
       </c>
       <c r="M14" s="51">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>5.2083333333333329E-2</v>
       </c>
       <c r="N14" s="50" t="str">
         <f t="array" ref="N14">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M14/INDEX(Tasks,1,3),"")</f>
@@ -35256,7 +35270,7 @@
       </c>
       <c r="D139" s="44">
         <f>'Metehan Topaç'!D128</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E139" s="44">
         <f>'Metehan Topaç'!E128</f>
@@ -35292,7 +35306,7 @@
       </c>
       <c r="M139" s="54">
         <f t="shared" si="1"/>
-        <v>0.52083333333333326</v>
+        <v>0.56249999999999989</v>
       </c>
     </row>
     <row r="140" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35432,7 +35446,7 @@
       </c>
       <c r="D143" s="54">
         <f t="shared" si="2"/>
-        <v>0.92708333333333326</v>
+        <v>0.96874999999999989</v>
       </c>
       <c r="E143" s="54">
         <f t="shared" si="2"/>
@@ -35468,7 +35482,7 @@
       </c>
       <c r="M143" s="54">
         <f t="shared" si="1"/>
-        <v>2.6354166666666661</v>
+        <v>2.677083333333333</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
